--- a/outs/nan_out.xlsx
+++ b/outs/nan_out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AN1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,197 +434,197 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>creator</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>creator</t>
+          <t>source</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>contributor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>contributor</t>
+          <t>language</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>rights</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>rights</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>format</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>identifier</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>zotero_genre</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>zotero_genre</t>
+          <t>zotero_distributor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>zotero_distributor</t>
+          <t>zotero_director</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>zotero_director</t>
+          <t>z_performer</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>z_performer</t>
+          <t>zotero_episode_number</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>zotero_episode_number</t>
+          <t>zotero_language</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>zotero_language</t>
+          <t>zotero_network</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>zotero_network</t>
+          <t>zotero_audio_recording_format</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>zotero_audio_recording_format</t>
+          <t>zotero_label</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>zotero_label</t>
+          <t>zotero_running_time</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>zotero_running_time</t>
+          <t>zotero_num_pages</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>zotero_num_pages</t>
+          <t>zotero_place</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>zotero_place</t>
+          <t>zotero_publisher</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publisher</t>
+          <t>zotero_issn</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issn</t>
+          <t>zotero_isbn</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>zotero_isbn</t>
+          <t>zotero_issue</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issue</t>
+          <t>zotero_publication_title</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publication_title</t>
+          <t>z_url</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>z_url</t>
+          <t>zotero_volume</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>zotero_volume</t>
+          <t>zotero_short_title</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>zotero_short_title</t>
+          <t>z_ref</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>z_ref</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>files</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>files</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>collection</t>
         </is>
